--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/metrics/Trial_413__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/metrics/Trial_413__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6097,7 +6097,7 @@
                   <c:v>358.6669921875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>380.8926696777344</c:v>
+                  <c:v>380.8927001953125</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>357.6648254394531</c:v>
@@ -6106,7 +6106,7 @@
                   <c:v>341.9198913574219</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>358.5623474121094</c:v>
+                  <c:v>358.5623168945312</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>334.7155456542969</c:v>
@@ -6205,7 +6205,7 @@
                   <c:v>340.9881286621094</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>348.7899169921875</c:v>
+                  <c:v>348.7899475097656</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>350.0579833984375</c:v>
@@ -6226,7 +6226,7 @@
                   <c:v>354.959228515625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>386.8021850585938</c:v>
+                  <c:v>386.8021545410156</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>341.2097473144531</c:v>
@@ -6346,10 +6346,10 @@
                   <c:v>357.3627014160156</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>345.5044555664062</c:v>
+                  <c:v>345.5044250488281</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>398.8432006835938</c:v>
+                  <c:v>398.8431701660156</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>341.9198913574219</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7087,8 +7099,14 @@
       <c r="H3">
         <v>399</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>399</v>
+      </c>
+      <c r="S3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>367.8110046386719</v>
       </c>
       <c r="G4">
+        <v>399</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>399</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7139,8 +7163,14 @@
       <c r="H5">
         <v>399</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>399</v>
+      </c>
+      <c r="S5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7160,13 +7190,19 @@
         <v>341.9198913574219</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>399</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7191,8 +7227,14 @@
       <c r="H7">
         <v>399</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>399</v>
+      </c>
+      <c r="S7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7212,7 +7254,7 @@
         <v>363.323974609375</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7232,7 +7274,7 @@
         <v>341.9198913574219</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>355.006591796875</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7272,7 +7314,7 @@
         <v>353.3435668945312</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>353.7200927734375</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>347.8277282714844</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>358.6669921875</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7349,10 +7391,10 @@
         <v>362.937</v>
       </c>
       <c r="F15">
-        <v>380.8926696777344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>380.8927001953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7409,7 +7451,7 @@
         <v>339.59</v>
       </c>
       <c r="F18">
-        <v>358.5623474121094</v>
+        <v>358.5623168945312</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8069,7 +8111,7 @@
         <v>360.5</v>
       </c>
       <c r="F51">
-        <v>348.7899169921875</v>
+        <v>348.7899475097656</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8209,7 +8251,7 @@
         <v>360.873</v>
       </c>
       <c r="F58">
-        <v>386.8021850585938</v>
+        <v>386.8021545410156</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9009,7 +9051,7 @@
         <v>338.575</v>
       </c>
       <c r="F98">
-        <v>345.5044555664062</v>
+        <v>345.5044250488281</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9029,7 +9071,7 @@
         <v>341.086</v>
       </c>
       <c r="F99">
-        <v>398.8432006835938</v>
+        <v>398.8431701660156</v>
       </c>
     </row>
     <row r="100" spans="1:6">
